--- a/South_America/_Metadata/Mapping_Schemes/Mapping_Ecuador_Res.xlsx
+++ b/South_America/_Metadata/Mapping_Schemes/Mapping_Ecuador_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Camila\Documents\Git_repositories\GEM\WIP\south_america\github_exposure_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Camila\Documents\Git_repositories\GEM\WIP\south_america\data\processed\residential\0_censos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88147A-DEB5-46D3-9C8E-090253882975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DFEAB9-B9FA-4E98-9516-E927487B8D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_Urban" sheetId="9" r:id="rId1"/>
@@ -42,8 +42,19 @@
     <definedName name="WALL" localSheetId="0">[1]MATERIALES!$A$2:$B$47</definedName>
     <definedName name="WALL">[2]MATERIALES!$A$2:$B$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="58">
   <si>
     <t>Hormigón</t>
   </si>
@@ -154,10 +165,6 @@
     <t>100% MUR/LWAL+DNO/H:1</t>
   </si>
   <si>
-    <t>60% MUR+ADO/LWAL+DNO/H:1
-40% W+WWD/LWAL+DNO/H:1</t>
-  </si>
-  <si>
     <t>100% W+WO/LN+DNO/H:1</t>
   </si>
   <si>
@@ -168,14 +175,6 @@
   </si>
   <si>
     <t>100% UNK/LN+DNO/H:1</t>
-  </si>
-  <si>
-    <t>70% MUR+ADO/LWAL+DNO/H:2
-30% W+WWD/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>30% MUR+ADO/LWAL+DNO/H:1
-70% W+WWD/LWAL+DNO/H:1</t>
   </si>
   <si>
     <t>70% W+WO/LN+DNO/H:1
@@ -195,78 +194,10 @@
     <t>100% W+WO/LN+DNO/H:2</t>
   </si>
   <si>
-    <t>50% MUR+ADO/LWAL+DNO/H:1
-20% MUR+ADO/LWAL+DNO/H:2
-25% W+WWD/LWAL+DNO/H:1
-5% W+WWD/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>70% MUR+ADO/LWAL+DNO/H:1
-30% W+WWD/LWAL+DNO/H:1</t>
-  </si>
-  <si>
-    <t>70% MUR/LWAL+DNO/H:1
-30% MUR/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>40% MUR/LWAL+DNO/H:1
-20% MUR/LWAL+DNO/H:2
-30% MCF/LWAL+DNO/H:1
-10% MCF/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>20% MUR/LWAL+DNO/H:1
-15% MUR/LWAL+DNO/H:2
-5% MUR/LWAL+DNO/H:3
-35% MCF/LWAL+DNO/H:1
-20% MCF/LWAL+DNO/H:2
-5% MCF/LWAL+DNO/H:3</t>
-  </si>
-  <si>
     <t>30% MUR/LWAL+DNO/H:2
 10% MUR/LWAL+DNO/H:3
 40% MCF/LWAL+DNO/H:2
 20% MCF/LWAL+DNO/H:3</t>
-  </si>
-  <si>
-    <t>20% MUR/LWAL+DNO/H:2
-5% MUR/LWAL+DNO/H:3
-50% MCF/LWAL+DNO/H:2
-25% MCF/LWAL+DNO/H:3</t>
-  </si>
-  <si>
-    <t>80% MUR/LWAL+DNO/H:1
-20% MUR/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>30% MUR/LWAL+DNO/H:1
-15% MUR/LWAL+DNO/H:2
-5% MUR/LWAL+DNO/H:3
-30% MCF/LWAL+DNO/H:1
-15% MCF/LWAL+DNO/H:2
-5% MCF/LWAL+DNO/H:3</t>
-  </si>
-  <si>
-    <t>25% MUR/LWAL+DNO/H:1
-10% MUR/LWAL+DNO/H:2
-5% MUR/LWAL+DNO/H:3
-20% MCF/LWAL+DNO/H:1
-15% MCF/LWAL+DNO/H:2
-5% MCF/LWAL+DNO/H:3
-10% MCF/LWAL+DUC/H:1
-7% MCF/LWAL+DUC/H:2
-3% MCF/LWAL+DUC/H:3</t>
-  </si>
-  <si>
-    <t>15% MUR/LWAL+DNO/H:1
-7% MUR/LWAL+DNO/H:2
-3% MUR/LWAL+DNO/H:3
-25% MCF/LWAL+DNO/H:1
-15% MCF/LWAL+DNO/H:2
-7% MCF/LWAL+DNO/H:3
-15% MCF/LWAL+DUC/H:1
-8% MCF/LWAL+DUC/H:2
-5% MCF/LWAL+DUC/H:3</t>
   </si>
   <si>
     <t>20% MCF/LWAL+DNO/H:2
@@ -293,28 +224,6 @@
 10% MCF/LWAL+DUC/H:3
 30% CR/LFINF+DNO/H:3
 15% CR/LFINF+DUC/H:3</t>
-  </si>
-  <si>
-    <t>30% MUR/LWAL+DNO/H:1
-10% MUR/LWAL+DNO/H:2
-40% MCF/LWAL+DNO/H:1
-20% MCF/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>25% MUR/LWAL+DNO/H:1
-10% MUR/LWAL+DNO/H:2
-35% MCF/LWAL+DNO/H:1
-10% MCF/LWAL+DNO/H:2
-15% MCF/LWAL+DUC/H:1
-5% MCF/LWAL+DUC/H:2</t>
-  </si>
-  <si>
-    <t>15% MUR/LWAL+DNO/H:1
-10% MUR/LWAL+DNO/H:2
-30% MCF/LWAL+DNO/H:1
-20% MCF/LWAL+DNO/H:2
-20% MCF/LWAL+DUC/H:1
-5% MCF/LWAL+DUC/H:2</t>
   </si>
   <si>
     <t>10% MCF/LWAL+DNO/H:2
@@ -326,6 +235,82 @@
 10% CR/LFINF+DUC/H:3
 18% CR/LFINF+DUC/HBET:4,6
 12% CR/LFINF+DUC/HBET:7-</t>
+  </si>
+  <si>
+    <t>25% MCF/LWAL+DNO/H:1
+15% MCF/LWAL+DNO/H:2
+7% MCF/LWAL+DNO/H:3
+30% MCF/LWAL+DUC/H:1
+15% MCF/LWAL+DUC/H:2
+8% MCF/LWAL+DUC/H:3</t>
+  </si>
+  <si>
+    <t>30% MCF/LWAL+DNO/H:1
+15% MCF/LWAL+DNO/H:2
+35% MCF/LWAL+DUC/H:1
+20% MCF/LWAL+DUC/H:2</t>
+  </si>
+  <si>
+    <t>15% MCF/LWAL+DNO/H:1
+10% MCF/LWAL+DNO/H:2
+40% MCF/LWAL+DUC/H:1
+25% MCF/LWAL+DUC/H:2
+10% MCF/LWAL+DUC/H:3</t>
+  </si>
+  <si>
+    <t>OPTION A3</t>
+  </si>
+  <si>
+    <t>30% CR+CIP/LFINF+CDL/HEX:1
+15% CR+CIP/LFINF+CDL/HEX:2
+35% MCF/LWAL+DUC/H:1
+20% MCF/LWAL+DUC/H:2</t>
+  </si>
+  <si>
+    <t>100% MUR+ADO/LWAL+DNO/H:1</t>
+  </si>
+  <si>
+    <t>70% MUR+ADO/LWAL+DNO/H:1
+30% MUR+ADO/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>100% MUR+ADO/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>15% CR+CIP/LFINF+CDL/HEX:1
+8% CR+CIP/LFINF+CDL/HEX:2
+7% CR+CIP/LFINF+CDL/HEX:3
+40% MCF/LWAL+DUC/H:1
+15% MCF/LWAL+DUC/H:2
+15% MCF/LWAL+DUC/H:3</t>
+  </si>
+  <si>
+    <t>20% MCF/LWAL+DNO/H:2
+15% MCF/LWAL+DNO/H:3
+20% MCF/LWAL+DUC/H:2
+15% MCF/LWAL+DUC/H:3
+15% CR/LFINF+DNO/H:3
+15% CR/LFINF+DUC/H:3</t>
+  </si>
+  <si>
+    <t>35% MUR/LWAL+DNO/H:1
+15% MUR/LWAL+DNO/H:2
+35% MCF/LWAL+DNO/H:1
+15% MCF/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>25% CR+CIP/LFINF+CDM/HEX:1
+15% CR+CIP/LFINF+CDM/HEX:2
+7% CR+CIP/LFINF+CDM/HEX:3
+30% MCF/LWAL+DUC/H:1
+15% MCF/LWAL+DUC/H:2
+8% MCF/LWAL+DUC/H:3</t>
+  </si>
+  <si>
+    <t>30% CR+CIP/LFINF+CDM/HEX:1
+15% CR+CIP/LFINF+CDM/HEX:2
+35% MCF/LWAL+DUC/H:1
+20% MCF/LWAL+DUC/H:2</t>
   </si>
 </sst>
 </file>
@@ -532,7 +517,7 @@
       <name val="Arial CE"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,8 +739,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -979,6 +970,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1060,7 +1060,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
@@ -1130,11 +1130,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="23" fillId="40" borderId="10" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="40" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1530,17 +1542,20 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9:D9"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" style="3" customWidth="1"/>
-    <col min="2" max="8" width="25.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="29.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="3" customWidth="1"/>
+    <col min="6" max="8" width="30.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.28515625" style="3"/>
   </cols>
@@ -1551,22 +1566,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1619,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>31</v>
@@ -1621,17 +1636,17 @@
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
+      <c r="B6" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
+      <c r="D6" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>31</v>
@@ -1652,7 +1667,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>29</v>
@@ -1661,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -1688,13 +1703,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1703,25 +1718,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -1730,25 +1745,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="17"/>
       <c r="O10" s="3"/>
@@ -1758,25 +1773,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="17"/>
       <c r="O11" s="3"/>
@@ -1794,104 +1809,118 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="30.95" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="135">
+    <row r="15" spans="1:16" ht="90">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>39</v>
+      <c r="F15" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="150">
+    <row r="16" spans="1:16" ht="120">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="E16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="120">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>39</v>
+      <c r="D17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="90">
+    <row r="18" spans="1:7" ht="60">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>33</v>
+      <c r="D18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1902,16 +1931,18 @@
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7">
@@ -1921,19 +1952,21 @@
       <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="C20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1943,13 +1976,15 @@
       <c r="C21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="D21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
@@ -1959,16 +1994,18 @@
       <c r="B22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="C22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -1985,7 +2022,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,15 +2042,19 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="25.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.28515625" style="3"/>
   </cols>
@@ -2024,22 +2065,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>31</v>
@@ -2094,17 +2135,17 @@
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
+      <c r="B6" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
+      <c r="D6" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>31</v>
@@ -2125,7 +2166,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>29</v>
@@ -2134,13 +2175,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -2161,13 +2202,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -2176,25 +2217,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -2203,25 +2244,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="17"/>
       <c r="O10" s="3"/>
@@ -2231,25 +2272,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="17"/>
       <c r="O11" s="3"/>
@@ -2267,104 +2308,118 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="30.95" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="135">
+    <row r="15" spans="1:16" ht="90">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>39</v>
+      <c r="E15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="165">
+    <row r="16" spans="1:16" ht="135">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="120">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>39</v>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="90">
+    <row r="18" spans="1:7" ht="60">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>33</v>
+      <c r="C18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -2375,14 +2430,17 @@
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>33</v>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -2393,19 +2451,21 @@
       <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="C20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2415,13 +2475,15 @@
       <c r="C21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="D21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
@@ -2431,16 +2493,18 @@
       <c r="B22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="C22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -2504,7 +2568,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2519,16 +2583,19 @@
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="26" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.28515625" style="3"/>
   </cols>
@@ -2539,22 +2606,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>29</v>
@@ -2649,13 +2716,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -2676,13 +2743,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -2691,25 +2758,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -2718,25 +2785,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="17"/>
       <c r="O10" s="3"/>
@@ -2746,25 +2813,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="17"/>
       <c r="O11" s="3"/>
@@ -2782,20 +2849,20 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="30.95" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2811,78 +2878,78 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="120">
+    <row r="15" spans="1:16" ht="105">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>46</v>
+      <c r="B15" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="60">
+    <row r="16" spans="1:16" ht="90">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>49</v>
+      <c r="B16" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="120">
+    <row r="17" spans="1:8" ht="90">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>46</v>
+      <c r="B17" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="60">
+    <row r="18" spans="1:8" ht="90">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2901,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
@@ -2920,12 +2987,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="60">
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2936,10 +3003,10 @@
         <v>31</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>

--- a/South_America/_Metadata/Mapping_Schemes/Mapping_Ecuador_Res.xlsx
+++ b/South_America/_Metadata/Mapping_Schemes/Mapping_Ecuador_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Camila\Documents\Git_repositories\GEM\WIP\south_america\data\processed\residential\0_censos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Camila\Documents\Git_repositories\GEM\WIP\south_america\github_exposure_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DFEAB9-B9FA-4E98-9516-E927487B8D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88147A-DEB5-46D3-9C8E-090253882975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_Urban" sheetId="9" r:id="rId1"/>
@@ -42,19 +42,8 @@
     <definedName name="WALL" localSheetId="0">[1]MATERIALES!$A$2:$B$47</definedName>
     <definedName name="WALL">[2]MATERIALES!$A$2:$B$47</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -63,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="61">
   <si>
     <t>Hormigón</t>
   </si>
@@ -165,6 +154,10 @@
     <t>100% MUR/LWAL+DNO/H:1</t>
   </si>
   <si>
+    <t>60% MUR+ADO/LWAL+DNO/H:1
+40% W+WWD/LWAL+DNO/H:1</t>
+  </si>
+  <si>
     <t>100% W+WO/LN+DNO/H:1</t>
   </si>
   <si>
@@ -175,6 +168,14 @@
   </si>
   <si>
     <t>100% UNK/LN+DNO/H:1</t>
+  </si>
+  <si>
+    <t>70% MUR+ADO/LWAL+DNO/H:2
+30% W+WWD/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>30% MUR+ADO/LWAL+DNO/H:1
+70% W+WWD/LWAL+DNO/H:1</t>
   </si>
   <si>
     <t>70% W+WO/LN+DNO/H:1
@@ -194,10 +195,78 @@
     <t>100% W+WO/LN+DNO/H:2</t>
   </si>
   <si>
+    <t>50% MUR+ADO/LWAL+DNO/H:1
+20% MUR+ADO/LWAL+DNO/H:2
+25% W+WWD/LWAL+DNO/H:1
+5% W+WWD/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>70% MUR+ADO/LWAL+DNO/H:1
+30% W+WWD/LWAL+DNO/H:1</t>
+  </si>
+  <si>
+    <t>70% MUR/LWAL+DNO/H:1
+30% MUR/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>40% MUR/LWAL+DNO/H:1
+20% MUR/LWAL+DNO/H:2
+30% MCF/LWAL+DNO/H:1
+10% MCF/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>20% MUR/LWAL+DNO/H:1
+15% MUR/LWAL+DNO/H:2
+5% MUR/LWAL+DNO/H:3
+35% MCF/LWAL+DNO/H:1
+20% MCF/LWAL+DNO/H:2
+5% MCF/LWAL+DNO/H:3</t>
+  </si>
+  <si>
     <t>30% MUR/LWAL+DNO/H:2
 10% MUR/LWAL+DNO/H:3
 40% MCF/LWAL+DNO/H:2
 20% MCF/LWAL+DNO/H:3</t>
+  </si>
+  <si>
+    <t>20% MUR/LWAL+DNO/H:2
+5% MUR/LWAL+DNO/H:3
+50% MCF/LWAL+DNO/H:2
+25% MCF/LWAL+DNO/H:3</t>
+  </si>
+  <si>
+    <t>80% MUR/LWAL+DNO/H:1
+20% MUR/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>30% MUR/LWAL+DNO/H:1
+15% MUR/LWAL+DNO/H:2
+5% MUR/LWAL+DNO/H:3
+30% MCF/LWAL+DNO/H:1
+15% MCF/LWAL+DNO/H:2
+5% MCF/LWAL+DNO/H:3</t>
+  </si>
+  <si>
+    <t>25% MUR/LWAL+DNO/H:1
+10% MUR/LWAL+DNO/H:2
+5% MUR/LWAL+DNO/H:3
+20% MCF/LWAL+DNO/H:1
+15% MCF/LWAL+DNO/H:2
+5% MCF/LWAL+DNO/H:3
+10% MCF/LWAL+DUC/H:1
+7% MCF/LWAL+DUC/H:2
+3% MCF/LWAL+DUC/H:3</t>
+  </si>
+  <si>
+    <t>15% MUR/LWAL+DNO/H:1
+7% MUR/LWAL+DNO/H:2
+3% MUR/LWAL+DNO/H:3
+25% MCF/LWAL+DNO/H:1
+15% MCF/LWAL+DNO/H:2
+7% MCF/LWAL+DNO/H:3
+15% MCF/LWAL+DUC/H:1
+8% MCF/LWAL+DUC/H:2
+5% MCF/LWAL+DUC/H:3</t>
   </si>
   <si>
     <t>20% MCF/LWAL+DNO/H:2
@@ -224,6 +293,28 @@
 10% MCF/LWAL+DUC/H:3
 30% CR/LFINF+DNO/H:3
 15% CR/LFINF+DUC/H:3</t>
+  </si>
+  <si>
+    <t>30% MUR/LWAL+DNO/H:1
+10% MUR/LWAL+DNO/H:2
+40% MCF/LWAL+DNO/H:1
+20% MCF/LWAL+DNO/H:2</t>
+  </si>
+  <si>
+    <t>25% MUR/LWAL+DNO/H:1
+10% MUR/LWAL+DNO/H:2
+35% MCF/LWAL+DNO/H:1
+10% MCF/LWAL+DNO/H:2
+15% MCF/LWAL+DUC/H:1
+5% MCF/LWAL+DUC/H:2</t>
+  </si>
+  <si>
+    <t>15% MUR/LWAL+DNO/H:1
+10% MUR/LWAL+DNO/H:2
+30% MCF/LWAL+DNO/H:1
+20% MCF/LWAL+DNO/H:2
+20% MCF/LWAL+DUC/H:1
+5% MCF/LWAL+DUC/H:2</t>
   </si>
   <si>
     <t>10% MCF/LWAL+DNO/H:2
@@ -235,82 +326,6 @@
 10% CR/LFINF+DUC/H:3
 18% CR/LFINF+DUC/HBET:4,6
 12% CR/LFINF+DUC/HBET:7-</t>
-  </si>
-  <si>
-    <t>25% MCF/LWAL+DNO/H:1
-15% MCF/LWAL+DNO/H:2
-7% MCF/LWAL+DNO/H:3
-30% MCF/LWAL+DUC/H:1
-15% MCF/LWAL+DUC/H:2
-8% MCF/LWAL+DUC/H:3</t>
-  </si>
-  <si>
-    <t>30% MCF/LWAL+DNO/H:1
-15% MCF/LWAL+DNO/H:2
-35% MCF/LWAL+DUC/H:1
-20% MCF/LWAL+DUC/H:2</t>
-  </si>
-  <si>
-    <t>15% MCF/LWAL+DNO/H:1
-10% MCF/LWAL+DNO/H:2
-40% MCF/LWAL+DUC/H:1
-25% MCF/LWAL+DUC/H:2
-10% MCF/LWAL+DUC/H:3</t>
-  </si>
-  <si>
-    <t>OPTION A3</t>
-  </si>
-  <si>
-    <t>30% CR+CIP/LFINF+CDL/HEX:1
-15% CR+CIP/LFINF+CDL/HEX:2
-35% MCF/LWAL+DUC/H:1
-20% MCF/LWAL+DUC/H:2</t>
-  </si>
-  <si>
-    <t>100% MUR+ADO/LWAL+DNO/H:1</t>
-  </si>
-  <si>
-    <t>70% MUR+ADO/LWAL+DNO/H:1
-30% MUR+ADO/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>100% MUR+ADO/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>15% CR+CIP/LFINF+CDL/HEX:1
-8% CR+CIP/LFINF+CDL/HEX:2
-7% CR+CIP/LFINF+CDL/HEX:3
-40% MCF/LWAL+DUC/H:1
-15% MCF/LWAL+DUC/H:2
-15% MCF/LWAL+DUC/H:3</t>
-  </si>
-  <si>
-    <t>20% MCF/LWAL+DNO/H:2
-15% MCF/LWAL+DNO/H:3
-20% MCF/LWAL+DUC/H:2
-15% MCF/LWAL+DUC/H:3
-15% CR/LFINF+DNO/H:3
-15% CR/LFINF+DUC/H:3</t>
-  </si>
-  <si>
-    <t>35% MUR/LWAL+DNO/H:1
-15% MUR/LWAL+DNO/H:2
-35% MCF/LWAL+DNO/H:1
-15% MCF/LWAL+DNO/H:2</t>
-  </si>
-  <si>
-    <t>25% CR+CIP/LFINF+CDM/HEX:1
-15% CR+CIP/LFINF+CDM/HEX:2
-7% CR+CIP/LFINF+CDM/HEX:3
-30% MCF/LWAL+DUC/H:1
-15% MCF/LWAL+DUC/H:2
-8% MCF/LWAL+DUC/H:3</t>
-  </si>
-  <si>
-    <t>30% CR+CIP/LFINF+CDM/HEX:1
-15% CR+CIP/LFINF+CDM/HEX:2
-35% MCF/LWAL+DUC/H:1
-20% MCF/LWAL+DUC/H:2</t>
   </si>
 </sst>
 </file>
@@ -517,7 +532,7 @@
       <name val="Arial CE"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,14 +754,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -970,15 +979,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1060,7 +1060,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
@@ -1130,23 +1130,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="23" fillId="40" borderId="10" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="40" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1542,20 +1530,17 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="29.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="3" customWidth="1"/>
-    <col min="6" max="8" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="25.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.28515625" style="3"/>
   </cols>
@@ -1566,22 +1551,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1604,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>31</v>
@@ -1636,17 +1621,17 @@
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>28</v>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>31</v>
@@ -1667,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>29</v>
@@ -1676,13 +1661,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -1703,13 +1688,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1718,25 +1703,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -1745,25 +1730,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="17"/>
       <c r="O10" s="3"/>
@@ -1773,25 +1758,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="17"/>
       <c r="O11" s="3"/>
@@ -1809,118 +1794,104 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="30.95" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="90">
+    <row r="15" spans="1:16" ht="135">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>36</v>
+      <c r="D15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="120">
+    <row r="16" spans="1:16" ht="150">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>36</v>
+      <c r="D17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="90">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>32</v>
+      <c r="D18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1931,18 +1902,16 @@
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7">
@@ -1952,21 +1921,19 @@
       <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1976,15 +1943,13 @@
       <c r="C21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="D21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
@@ -1994,18 +1959,16 @@
       <c r="B22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="C22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -2022,7 +1985,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2042,19 +2005,15 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="25.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.28515625" style="3"/>
   </cols>
@@ -2065,22 +2024,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2118,7 +2077,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>31</v>
@@ -2135,17 +2094,17 @@
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>28</v>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>31</v>
@@ -2166,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>29</v>
@@ -2175,13 +2134,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -2202,13 +2161,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -2217,25 +2176,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -2244,25 +2203,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="17"/>
       <c r="O10" s="3"/>
@@ -2272,25 +2231,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="17"/>
       <c r="O11" s="3"/>
@@ -2308,118 +2267,104 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="30.95" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="90">
+    <row r="15" spans="1:16" ht="135">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>36</v>
+      <c r="D15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="135">
+    <row r="16" spans="1:16" ht="165">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>36</v>
+      <c r="D17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="90">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>32</v>
+      <c r="D18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -2430,17 +2375,14 @@
       <c r="B19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>32</v>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -2451,21 +2393,19 @@
       <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2475,15 +2415,13 @@
       <c r="C21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="D21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
@@ -2493,18 +2431,16 @@
       <c r="B22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="C22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -2568,7 +2504,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,19 +2519,16 @@
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView zoomScale="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="26" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.28515625" style="3"/>
   </cols>
@@ -2606,22 +2539,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="30">
-      <c r="A4" s="31"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>29</v>
@@ -2716,13 +2649,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -2743,13 +2676,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -2758,25 +2691,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -2785,25 +2718,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="17"/>
       <c r="O10" s="3"/>
@@ -2813,25 +2746,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="17"/>
       <c r="O11" s="3"/>
@@ -2849,20 +2782,20 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="32.1" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="30.95" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2878,78 +2811,78 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="105">
+    <row r="15" spans="1:16" ht="120">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>53</v>
+      <c r="B15" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="90">
+    <row r="16" spans="1:16" ht="60">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>54</v>
+      <c r="B16" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="90">
+    <row r="17" spans="1:8" ht="120">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>49</v>
+      <c r="B17" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="90">
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>49</v>
+      <c r="B18" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2968,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
@@ -2987,12 +2920,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="60">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -3003,10 +2936,10 @@
         <v>31</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
